--- a/xlsx/foris_zdk.xlsx
+++ b/xlsx/foris_zdk.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +180,126 @@
   </si>
   <si>
     <t>(PLF.009)</t>
+  </si>
+  <si>
+    <t>c4Technology</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Ts-9VCQSmStf16Yo50cO-2</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Vendor Spec.</t>
+  </si>
+  <si>
+    <t>[Vendor Spec.]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-1</t>
+  </si>
+  <si>
+    <t>WCF, SOAP</t>
+  </si>
+  <si>
+    <t>[WCF, SOAP]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-7</t>
+  </si>
+  <si>
+    <t>Данные &lt;br style="font-size: 11px;"&gt;модельи сети</t>
+  </si>
+  <si>
+    <t>Esn9qN4QsQ4T7r5u13_S-33</t>
+  </si>
+  <si>
+    <t>SOAP, WCF</t>
+  </si>
+  <si>
+    <t>[SOAP, WCF]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-6</t>
+  </si>
+  <si>
+    <t>SOAP, DB job</t>
+  </si>
+  <si>
+    <t>[SOAP, DB job]</t>
+  </si>
+  <si>
+    <t>Ts-9VCQSmStf16Yo50cO-10</t>
+  </si>
+  <si>
+    <t>HTML/HTTPS</t>
+  </si>
+  <si>
+    <t>[HTML/HTTPS]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-2</t>
+  </si>
+  <si>
+    <t>MSMQ, WCF</t>
+  </si>
+  <si>
+    <t>[MSMQ, WCF]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-9</t>
+  </si>
+  <si>
+    <t>&lt;span style="font-size: 12px"&gt;[Vendor Spec.]&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Esn9qN4QsQ4T7r5u13_S-1</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-13</t>
+  </si>
+  <si>
+    <t>(Web-interface)</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-15</t>
+  </si>
+  <si>
+    <t>JSON, HTTPS</t>
+  </si>
+  <si>
+    <t>[JSON, HTTPS]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-20</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>[SOAP]</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-18</t>
+  </si>
+  <si>
+    <t>Nafl-8E6Ut7jWCbig4Iy-19</t>
+  </si>
+  <si>
+    <t>Esn9qN4QsQ4T7r5u13_S-28</t>
+  </si>
+  <si>
+    <t>SOAP/REST</t>
+  </si>
+  <si>
+    <t>[SOAP/REST]</t>
   </si>
 </sst>
 </file>
@@ -765,12 +885,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>